--- a/サンプルアプリケーション/設計書/03_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10202_プロジェクト更新.xlsx
+++ b/サンプルアプリケーション/設計書/03_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10202_プロジェクト更新.xlsx
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="513">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -2088,35 +2088,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規ウインドウ表示の場合のみテスト</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最小表示件数が存在するときのみテスト</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不要。</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
@@ -2124,35 +2095,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">個々の画面で検索条件件数の制御を行っている場合のみテスト
-</t>
-    <rPh sb="0" eb="2">
-      <t>ココ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対象外</t>
     <rPh sb="2" eb="3">
       <t>ガイ</t>
@@ -2170,37 +2112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務仕様及びアーキテクチャを踏まえて、観点毎にテスト対象要否を見直すこと。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヨウヒ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ミナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データNo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2292,19 +2203,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイルアップロードのリクエストで、ファイルの中身を見る場合のみ実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-6-1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>6-8-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書に、特別なファイルサイズ指定がある場合のみ実施する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2362,14 +2265,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>8-4-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2520,10 +2415,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログ出力に業務固有の要件が存在しない場合は、実施不要。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)システム機能設計書
 (2)メッセージ設計書</t>
     <phoneticPr fontId="1"/>
@@ -2650,14 +2541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共通化されたJSPを呼び出す場合、実施不要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>共通化されたJSPを呼び出す場合、実施不要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11-3-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2694,10 +2577,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規ウインドウかつ、IE専用の場合のみテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>12-3-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2735,16 +2614,6 @@
   </si>
   <si>
     <t>14-5-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個々の画面で最大表示件数の制御が必要な場合のみテスト</t>
-    <rPh sb="16" eb="18">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3075,10 +2944,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイルアップロードのリクエストで、ファイルの中身を見る場合のみ実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-6-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3096,10 +2961,6 @@
   </si>
   <si>
     <t>6-10-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書に、特別なファイルサイズ指定がある場合のみ実施する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3132,10 +2993,6 @@
   </si>
   <si>
     <t>出力された正常時のログの内容</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログ出力に業務固有の要件が存在しない場合は、実施不要。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3256,10 +3113,6 @@
   <si>
     <t>繰り返し単位</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Serviceのクラス単体テストで、編集処理が確認できている場合、取引単体テストでこのバリデーションを全てテストする必要はない。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>8-4-1</t>
@@ -13817,7 +13670,7 @@
         <v>208</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -13828,7 +13681,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -13857,9 +13710,7 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>233</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
@@ -13879,10 +13730,10 @@
         <v>86</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H10" s="91" t="s">
         <v>12</v>
@@ -13900,7 +13751,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -13953,14 +13804,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="99"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="93" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="167" t="s">
@@ -13971,10 +13822,10 @@
       <c r="F12" s="170"/>
       <c r="G12" s="171"/>
       <c r="H12" s="59" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I12" s="172" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J12" s="172"/>
       <c r="K12" s="172"/>
@@ -13988,7 +13839,7 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A13" s="93" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="101" t="s">
@@ -14023,14 +13874,14 @@
         <v>43658</v>
       </c>
       <c r="P13" s="106" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="109"/>
       <c r="R13" s="110"/>
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A14" s="93" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B14" s="100"/>
       <c r="C14" s="37"/>
@@ -14061,14 +13912,14 @@
         <v>43658</v>
       </c>
       <c r="P14" s="54" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="56"/>
       <c r="R14" s="110"/>
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A15" s="93" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B15" s="100"/>
       <c r="C15" s="37"/>
@@ -14096,13 +13947,13 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
       <c r="A16" s="93" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="37"/>
       <c r="D16" s="41"/>
       <c r="E16" s="174" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F16" s="175"/>
       <c r="G16" s="176"/>
@@ -14124,7 +13975,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="113" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="114"/>
@@ -14188,16 +14039,16 @@
         <v>81</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F19" s="170" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G19" s="171" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H19" s="185" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I19" s="186" t="s">
         <v>30</v>
@@ -14214,22 +14065,22 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="116" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="41"/>
       <c r="D20" s="188"/>
       <c r="E20" s="174" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F20" s="175" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G20" s="176" t="s">
         <v>226</v>
       </c>
       <c r="H20" s="189" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I20" s="186" t="s">
         <v>30</v>
@@ -14246,7 +14097,7 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="116" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="41"/>
@@ -14255,13 +14106,13 @@
         <v>142</v>
       </c>
       <c r="F21" s="175" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G21" s="176" t="s">
         <v>226</v>
       </c>
       <c r="H21" s="189" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I21" s="186" t="s">
         <v>30</v>
@@ -14278,22 +14129,22 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="116" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="41"/>
       <c r="D22" s="188"/>
       <c r="E22" s="174" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="175" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G22" s="176" t="s">
         <v>226</v>
       </c>
       <c r="H22" s="189" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I22" s="186" t="s">
         <v>30</v>
@@ -14308,20 +14159,20 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="173"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="116" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="188"/>
+      <c r="D23" s="187" t="s">
+        <v>81</v>
+      </c>
       <c r="E23" s="190" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="175"/>
-      <c r="G23" s="176" t="s">
-        <v>256</v>
-      </c>
+      <c r="G23" s="176"/>
       <c r="H23" s="189" t="s">
         <v>78</v>
       </c>
@@ -14340,7 +14191,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="116" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="114"/>
@@ -14349,9 +14200,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="175"/>
-      <c r="G24" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G24" s="176"/>
       <c r="H24" s="189" t="s">
         <v>78</v>
       </c>
@@ -14379,9 +14228,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="175"/>
-      <c r="G25" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G25" s="176"/>
       <c r="H25" s="189" t="s">
         <v>78</v>
       </c>
@@ -14400,7 +14247,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="116" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="114"/>
@@ -14409,9 +14256,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="175"/>
-      <c r="G26" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G26" s="176"/>
       <c r="H26" s="189" t="s">
         <v>78</v>
       </c>
@@ -14439,9 +14284,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="175"/>
-      <c r="G27" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G27" s="176"/>
       <c r="H27" s="189" t="s">
         <v>78</v>
       </c>
@@ -14469,9 +14312,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="175"/>
-      <c r="G28" s="176" t="s">
-        <v>259</v>
-      </c>
+      <c r="G28" s="176"/>
       <c r="H28" s="189" t="s">
         <v>78</v>
       </c>
@@ -14499,9 +14340,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="175"/>
-      <c r="G29" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G29" s="176"/>
       <c r="H29" s="189" t="s">
         <v>78</v>
       </c>
@@ -14528,15 +14367,15 @@
         <v>147</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F30" s="175"/>
       <c r="G30" s="176"/>
       <c r="H30" s="189" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I30" s="191" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J30" s="186"/>
       <c r="K30" s="186"/>
@@ -14550,15 +14389,15 @@
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="113" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="37"/>
       <c r="D31" s="192" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E31" s="193" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F31" s="175"/>
       <c r="G31" s="176"/>
@@ -14580,13 +14419,13 @@
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="113" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B32" s="100"/>
       <c r="C32" s="37"/>
       <c r="D32" s="68"/>
       <c r="E32" s="193" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F32" s="175"/>
       <c r="G32" s="176"/>
@@ -14608,18 +14447,16 @@
     </row>
     <row r="33" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A33" s="113" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B33" s="100"/>
       <c r="C33" s="37"/>
       <c r="D33" s="68"/>
       <c r="E33" s="193" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F33" s="175"/>
-      <c r="G33" s="176" t="s">
-        <v>274</v>
-      </c>
+      <c r="G33" s="176"/>
       <c r="H33" s="194" t="s">
         <v>138</v>
       </c>
@@ -14638,18 +14475,16 @@
     </row>
     <row r="34" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="113" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B34" s="100"/>
       <c r="C34" s="37"/>
       <c r="D34" s="68"/>
       <c r="E34" s="193" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F34" s="175"/>
-      <c r="G34" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G34" s="176"/>
       <c r="H34" s="194" t="s">
         <v>138</v>
       </c>
@@ -14668,18 +14503,16 @@
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="113" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B35" s="100"/>
       <c r="C35" s="37"/>
       <c r="D35" s="68"/>
       <c r="E35" s="193" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F35" s="175"/>
-      <c r="G35" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G35" s="176"/>
       <c r="H35" s="194" t="s">
         <v>138</v>
       </c>
@@ -14698,18 +14531,16 @@
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="113" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B36" s="100"/>
       <c r="C36" s="37"/>
       <c r="D36" s="68"/>
       <c r="E36" s="193" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F36" s="175"/>
-      <c r="G36" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G36" s="176"/>
       <c r="H36" s="194" t="s">
         <v>138</v>
       </c>
@@ -14728,21 +14559,21 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="113" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B37" s="100"/>
       <c r="C37" s="37"/>
       <c r="D37" s="68"/>
       <c r="E37" s="193" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F37" s="175"/>
       <c r="G37" s="176"/>
       <c r="H37" s="194" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I37" s="195" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J37" s="195"/>
       <c r="K37" s="195"/>
@@ -14756,21 +14587,21 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="113" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="37"/>
       <c r="D38" s="68"/>
       <c r="E38" s="193" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F38" s="175"/>
       <c r="G38" s="176"/>
       <c r="H38" s="194" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I38" s="195" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J38" s="195"/>
       <c r="K38" s="195"/>
@@ -14784,21 +14615,21 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="113" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="37"/>
       <c r="D39" s="69"/>
       <c r="E39" s="193" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F39" s="175"/>
       <c r="G39" s="176"/>
       <c r="H39" s="194" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I39" s="195" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J39" s="195"/>
       <c r="K39" s="195"/>
@@ -14812,15 +14643,15 @@
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="117" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="37"/>
       <c r="D40" s="198" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E40" s="193" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F40" s="175"/>
       <c r="G40" s="176"/>
@@ -14842,18 +14673,16 @@
     </row>
     <row r="41" spans="1:18" ht="45">
       <c r="A41" s="117" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B41" s="100"/>
       <c r="C41" s="37"/>
       <c r="D41" s="68"/>
       <c r="E41" s="193" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F41" s="175"/>
-      <c r="G41" s="176" t="s">
-        <v>274</v>
-      </c>
+      <c r="G41" s="176"/>
       <c r="H41" s="194" t="s">
         <v>138</v>
       </c>
@@ -14872,18 +14701,16 @@
     </row>
     <row r="42" spans="1:18" ht="54.75" customHeight="1">
       <c r="A42" s="117" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B42" s="100"/>
       <c r="C42" s="37"/>
       <c r="D42" s="68"/>
       <c r="E42" s="193" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F42" s="175"/>
-      <c r="G42" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G42" s="176"/>
       <c r="H42" s="194" t="s">
         <v>138</v>
       </c>
@@ -14902,18 +14729,16 @@
     </row>
     <row r="43" spans="1:18" ht="54.75" customHeight="1">
       <c r="A43" s="117" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B43" s="100"/>
       <c r="C43" s="37"/>
       <c r="D43" s="68"/>
       <c r="E43" s="193" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F43" s="175"/>
-      <c r="G43" s="176" t="s">
-        <v>226</v>
-      </c>
+      <c r="G43" s="176"/>
       <c r="H43" s="194" t="s">
         <v>138</v>
       </c>
@@ -14932,13 +14757,13 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="117" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B44" s="100"/>
       <c r="C44" s="37"/>
       <c r="D44" s="68"/>
       <c r="E44" s="199" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F44" s="175"/>
       <c r="G44" s="176"/>
@@ -14946,7 +14771,7 @@
         <v>35</v>
       </c>
       <c r="I44" s="201" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J44" s="201"/>
       <c r="K44" s="201"/>
@@ -14971,14 +14796,12 @@
         <v>156</v>
       </c>
       <c r="F45" s="206"/>
-      <c r="G45" s="207" t="s">
-        <v>312</v>
-      </c>
+      <c r="G45" s="207"/>
       <c r="H45" s="208" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="I45" s="209" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J45" s="209"/>
       <c r="K45" s="209"/>
@@ -14992,23 +14815,21 @@
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="117" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B46" s="118"/>
       <c r="C46" s="64"/>
       <c r="D46" s="68"/>
       <c r="E46" s="213" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F46" s="214"/>
-      <c r="G46" s="215" t="s">
-        <v>226</v>
-      </c>
+      <c r="G46" s="215"/>
       <c r="H46" s="216" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="I46" s="217" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J46" s="217"/>
       <c r="K46" s="217"/>
@@ -15022,23 +14843,21 @@
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="117" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B47" s="118"/>
       <c r="C47" s="64"/>
       <c r="D47" s="68"/>
       <c r="E47" s="221" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F47" s="222"/>
-      <c r="G47" s="223" t="s">
-        <v>226</v>
-      </c>
+      <c r="G47" s="223"/>
       <c r="H47" s="224" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I47" s="225" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J47" s="225"/>
       <c r="K47" s="225"/>
@@ -15052,23 +14871,21 @@
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="117" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B48" s="118"/>
       <c r="C48" s="64"/>
       <c r="D48" s="68"/>
       <c r="E48" s="229" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F48" s="230"/>
-      <c r="G48" s="231" t="s">
-        <v>226</v>
-      </c>
+      <c r="G48" s="231"/>
       <c r="H48" s="232" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I48" s="233" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J48" s="233"/>
       <c r="K48" s="233"/>
@@ -15082,23 +14899,21 @@
     </row>
     <row r="49" spans="1:18" ht="33.75">
       <c r="A49" s="117" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B49" s="118"/>
       <c r="C49" s="64"/>
       <c r="D49" s="68"/>
       <c r="E49" s="237" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F49" s="238"/>
-      <c r="G49" s="239" t="s">
-        <v>226</v>
-      </c>
+      <c r="G49" s="239"/>
       <c r="H49" s="240" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I49" s="241" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J49" s="241"/>
       <c r="K49" s="241"/>
@@ -15112,23 +14927,21 @@
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="117" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B50" s="118"/>
       <c r="C50" s="64"/>
       <c r="D50" s="68"/>
       <c r="E50" s="245" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F50" s="246"/>
-      <c r="G50" s="247" t="s">
-        <v>226</v>
-      </c>
+      <c r="G50" s="247"/>
       <c r="H50" s="248" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I50" s="249" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J50" s="249"/>
       <c r="K50" s="249"/>
@@ -15148,14 +14961,12 @@
       <c r="C51" s="64"/>
       <c r="D51" s="68"/>
       <c r="E51" s="253" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F51" s="254"/>
-      <c r="G51" s="255" t="s">
-        <v>226</v>
-      </c>
+      <c r="G51" s="255"/>
       <c r="H51" s="256" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I51" s="257" t="s">
         <v>157</v>
@@ -15172,20 +14983,18 @@
     </row>
     <row r="52" spans="1:18" ht="22.5">
       <c r="A52" s="117" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B52" s="118"/>
       <c r="C52" s="64"/>
       <c r="D52" s="68"/>
       <c r="E52" s="261" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F52" s="262"/>
-      <c r="G52" s="263" t="s">
-        <v>226</v>
-      </c>
+      <c r="G52" s="263"/>
       <c r="H52" s="264" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I52" s="265" t="s">
         <v>157</v>
@@ -15202,23 +15011,21 @@
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="117" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B53" s="119"/>
       <c r="C53" s="269"/>
       <c r="D53" s="68"/>
       <c r="E53" s="270" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F53" s="271"/>
-      <c r="G53" s="272" t="s">
-        <v>226</v>
-      </c>
+      <c r="G53" s="272"/>
       <c r="H53" s="273" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I53" s="274" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J53" s="274"/>
       <c r="K53" s="274"/>
@@ -15232,7 +15039,7 @@
     </row>
     <row r="54" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A54" s="117" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>37</v>
@@ -15241,10 +15048,10 @@
         <v>38</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E54" s="123" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F54" s="124"/>
       <c r="G54" s="125"/>
@@ -15269,14 +15076,14 @@
         <v>43658</v>
       </c>
       <c r="P54" s="127" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q54" s="50"/>
       <c r="R54" s="128"/>
     </row>
     <row r="55" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A55" s="117" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -15285,9 +15092,7 @@
         <v>41</v>
       </c>
       <c r="F55" s="297"/>
-      <c r="G55" s="298" t="s">
-        <v>345</v>
-      </c>
+      <c r="G55" s="298"/>
       <c r="H55" s="299" t="s">
         <v>39</v>
       </c>
@@ -15306,7 +15111,7 @@
     </row>
     <row r="56" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A56" s="117" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -15315,9 +15120,7 @@
         <v>42</v>
       </c>
       <c r="F56" s="297"/>
-      <c r="G56" s="298" t="s">
-        <v>226</v>
-      </c>
+      <c r="G56" s="298"/>
       <c r="H56" s="299" t="s">
         <v>39</v>
       </c>
@@ -15336,7 +15139,7 @@
     </row>
     <row r="57" spans="1:18" s="43" customFormat="1" ht="33.75">
       <c r="A57" s="117" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -15367,14 +15170,14 @@
         <v>43658</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="133"/>
     </row>
     <row r="58" spans="1:18" s="43" customFormat="1" ht="22.5">
       <c r="A58" s="117" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -15383,9 +15186,7 @@
         <v>44</v>
       </c>
       <c r="F58" s="271"/>
-      <c r="G58" s="272" t="s">
-        <v>345</v>
-      </c>
+      <c r="G58" s="272"/>
       <c r="H58" s="305" t="s">
         <v>39</v>
       </c>
@@ -15404,20 +15205,18 @@
     </row>
     <row r="59" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A59" s="117" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
       <c r="D59" s="134" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E59" s="308" t="s">
         <v>45</v>
       </c>
       <c r="F59" s="309"/>
-      <c r="G59" s="310" t="s">
-        <v>227</v>
-      </c>
+      <c r="G59" s="310"/>
       <c r="H59" s="311" t="s">
         <v>39</v>
       </c>
@@ -15436,7 +15235,7 @@
     </row>
     <row r="60" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A60" s="117" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -15445,9 +15244,7 @@
         <v>46</v>
       </c>
       <c r="F60" s="309"/>
-      <c r="G60" s="310" t="s">
-        <v>355</v>
-      </c>
+      <c r="G60" s="310"/>
       <c r="H60" s="311" t="s">
         <v>39</v>
       </c>
@@ -15466,7 +15263,7 @@
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="117" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -15497,14 +15294,14 @@
         <v>43658</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="140"/>
     </row>
     <row r="62" spans="1:18" s="32" customFormat="1">
       <c r="A62" s="117" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -15534,7 +15331,7 @@
     </row>
     <row r="63" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A63" s="117" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -15565,14 +15362,14 @@
         <v>43658</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="140"/>
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="117" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -15585,7 +15382,7 @@
       <c r="F64" s="136"/>
       <c r="G64" s="137"/>
       <c r="H64" s="138" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I64" s="138" t="s">
         <v>53</v>
@@ -15605,14 +15402,14 @@
         <v>43658</v>
       </c>
       <c r="P64" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="140"/>
     </row>
     <row r="65" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="117" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -15623,7 +15420,7 @@
       <c r="F65" s="136"/>
       <c r="G65" s="137"/>
       <c r="H65" s="138" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I65" s="138" t="s">
         <v>53</v>
@@ -15643,14 +15440,14 @@
         <v>43658</v>
       </c>
       <c r="P65" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="140"/>
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="117" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -15659,11 +15456,9 @@
         <v>163</v>
       </c>
       <c r="F66" s="309"/>
-      <c r="G66" s="310" t="s">
-        <v>228</v>
-      </c>
+      <c r="G66" s="310"/>
       <c r="H66" s="311" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I66" s="311" t="s">
         <v>53</v>
@@ -15680,7 +15475,7 @@
     </row>
     <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="117" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -15689,13 +15484,13 @@
         <v>164</v>
       </c>
       <c r="F67" s="309" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G67" s="310" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H67" s="311" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I67" s="311" t="s">
         <v>53</v>
@@ -15712,7 +15507,7 @@
     </row>
     <row r="68" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="117" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -15721,11 +15516,9 @@
         <v>111</v>
       </c>
       <c r="F68" s="309"/>
-      <c r="G68" s="310" t="s">
-        <v>366</v>
-      </c>
+      <c r="G68" s="310"/>
       <c r="H68" s="311" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I68" s="311" t="s">
         <v>53</v>
@@ -15742,20 +15535,18 @@
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="117" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
       <c r="E69" s="312" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F69" s="309"/>
-      <c r="G69" s="310" t="s">
-        <v>226</v>
-      </c>
+      <c r="G69" s="310"/>
       <c r="H69" s="311" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I69" s="311" t="s">
         <v>53</v>
@@ -15772,7 +15563,7 @@
     </row>
     <row r="70" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="117" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -15781,11 +15572,9 @@
         <v>112</v>
       </c>
       <c r="F70" s="309"/>
-      <c r="G70" s="310" t="s">
-        <v>230</v>
-      </c>
+      <c r="G70" s="310"/>
       <c r="H70" s="311" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I70" s="311" t="s">
         <v>53</v>
@@ -15802,20 +15591,18 @@
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="117" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
       <c r="D71" s="42"/>
       <c r="E71" s="312" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F71" s="309"/>
-      <c r="G71" s="310" t="s">
-        <v>226</v>
-      </c>
+      <c r="G71" s="310"/>
       <c r="H71" s="311" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I71" s="311" t="s">
         <v>53</v>
@@ -15832,7 +15619,7 @@
     </row>
     <row r="72" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="117" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -15840,15 +15627,15 @@
         <v>161</v>
       </c>
       <c r="E72" s="312" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F72" s="309"/>
       <c r="G72" s="310"/>
       <c r="H72" s="311" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I72" s="66" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J72" s="312"/>
       <c r="K72" s="312"/>
@@ -15862,7 +15649,7 @@
     </row>
     <row r="73" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="117" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -15875,7 +15662,7 @@
       <c r="F73" s="309"/>
       <c r="G73" s="310"/>
       <c r="H73" s="311" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I73" s="314" t="s">
         <v>57</v>
@@ -15896,18 +15683,18 @@
     </row>
     <row r="74" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A74" s="117" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="65"/>
       <c r="E74" s="312" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F74" s="309"/>
       <c r="G74" s="310"/>
       <c r="H74" s="311" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I74" s="314" t="s">
         <v>57</v>
@@ -15928,7 +15715,7 @@
     </row>
     <row r="75" spans="1:18" s="32" customFormat="1">
       <c r="A75" s="117" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -15939,7 +15726,7 @@
       <c r="F75" s="309"/>
       <c r="G75" s="310"/>
       <c r="H75" s="311" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I75" s="314" t="s">
         <v>57</v>
@@ -15958,7 +15745,7 @@
     </row>
     <row r="76" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="117" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -15971,7 +15758,7 @@
       <c r="F76" s="136"/>
       <c r="G76" s="137"/>
       <c r="H76" s="138" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I76" s="141" t="s">
         <v>57</v>
@@ -15991,14 +15778,14 @@
         <v>43658</v>
       </c>
       <c r="P76" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q76" s="33"/>
       <c r="R76" s="140"/>
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A77" s="117" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -16009,7 +15796,7 @@
       <c r="F77" s="136"/>
       <c r="G77" s="137"/>
       <c r="H77" s="138" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I77" s="141" t="s">
         <v>57</v>
@@ -16029,14 +15816,14 @@
         <v>43658</v>
       </c>
       <c r="P77" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q77" s="33"/>
       <c r="R77" s="140"/>
     </row>
     <row r="78" spans="1:18" s="32" customFormat="1">
       <c r="A78" s="117" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -16047,7 +15834,7 @@
       <c r="F78" s="136"/>
       <c r="G78" s="137"/>
       <c r="H78" s="138" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I78" s="141" t="s">
         <v>57</v>
@@ -16065,14 +15852,14 @@
         <v>43658</v>
       </c>
       <c r="P78" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q78" s="33"/>
       <c r="R78" s="140"/>
     </row>
     <row r="79" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A79" s="117" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -16083,7 +15870,7 @@
       <c r="F79" s="96"/>
       <c r="G79" s="97"/>
       <c r="H79" s="138" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I79" s="141" t="s">
         <v>57</v>
@@ -16103,14 +15890,14 @@
         <v>43658</v>
       </c>
       <c r="P79" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q79" s="33"/>
       <c r="R79" s="140"/>
     </row>
     <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="117" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -16119,13 +15906,13 @@
       </c>
       <c r="E80" s="80"/>
       <c r="F80" s="170" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G80" s="171" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="H80" s="311" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I80" s="314" t="s">
         <v>178</v>
@@ -16142,7 +15929,7 @@
     </row>
     <row r="81" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A81" s="117" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B81" s="41"/>
       <c r="C81" s="141" t="s">
@@ -16155,7 +15942,7 @@
       <c r="F81" s="144"/>
       <c r="G81" s="145"/>
       <c r="H81" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I81" s="141" t="s">
         <v>64</v>
@@ -16175,14 +15962,14 @@
         <v>43658</v>
       </c>
       <c r="P81" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q81" s="148"/>
       <c r="R81" s="150"/>
     </row>
     <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="117" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -16195,7 +15982,7 @@
       <c r="F82" s="144"/>
       <c r="G82" s="145"/>
       <c r="H82" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I82" s="141" t="s">
         <v>64</v>
@@ -16215,25 +16002,25 @@
         <v>43658</v>
       </c>
       <c r="P82" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q82" s="148"/>
       <c r="R82" s="150"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="117" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="151"/>
       <c r="E83" s="152" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F83" s="144"/>
       <c r="G83" s="145"/>
       <c r="H83" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I83" s="141" t="s">
         <v>64</v>
@@ -16253,14 +16040,14 @@
         <v>43658</v>
       </c>
       <c r="P83" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q83" s="148"/>
       <c r="R83" s="150"/>
     </row>
     <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="117" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -16271,7 +16058,7 @@
       <c r="F84" s="144"/>
       <c r="G84" s="145"/>
       <c r="H84" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I84" s="141" t="s">
         <v>64</v>
@@ -16291,14 +16078,14 @@
         <v>43658</v>
       </c>
       <c r="P84" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q84" s="148"/>
       <c r="R84" s="150"/>
     </row>
     <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="117" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -16309,7 +16096,7 @@
       <c r="F85" s="144"/>
       <c r="G85" s="145"/>
       <c r="H85" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I85" s="141" t="s">
         <v>64</v>
@@ -16329,14 +16116,14 @@
         <v>43658</v>
       </c>
       <c r="P85" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q85" s="148"/>
       <c r="R85" s="150"/>
     </row>
     <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="117" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -16347,7 +16134,7 @@
       <c r="F86" s="144"/>
       <c r="G86" s="145"/>
       <c r="H86" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I86" s="141" t="s">
         <v>64</v>
@@ -16367,29 +16154,29 @@
         <v>43658</v>
       </c>
       <c r="P86" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q86" s="148"/>
       <c r="R86" s="150"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="117" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
       <c r="D87" s="316" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="E87" s="317"/>
       <c r="F87" s="318" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G87" s="319" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="H87" s="314" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I87" s="314" t="s">
         <v>64</v>
@@ -16406,7 +16193,7 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="117" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -16415,13 +16202,13 @@
       </c>
       <c r="E88" s="317"/>
       <c r="F88" s="318" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G88" s="319" t="s">
         <v>226</v>
       </c>
       <c r="H88" s="314" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I88" s="314" t="s">
         <v>64</v>
@@ -16438,7 +16225,7 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="117" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -16447,13 +16234,13 @@
       </c>
       <c r="E89" s="317"/>
       <c r="F89" s="318" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G89" s="319" t="s">
         <v>226</v>
       </c>
       <c r="H89" s="314" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I89" s="314" t="s">
         <v>64</v>
@@ -16470,7 +16257,7 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="117" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -16479,13 +16266,13 @@
       </c>
       <c r="E90" s="317"/>
       <c r="F90" s="318" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G90" s="319" t="s">
         <v>226</v>
       </c>
       <c r="H90" s="314" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I90" s="314" t="s">
         <v>64</v>
@@ -16502,7 +16289,7 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="117" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -16511,13 +16298,13 @@
       </c>
       <c r="E91" s="317"/>
       <c r="F91" s="318" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G91" s="319" t="s">
         <v>226</v>
       </c>
       <c r="H91" s="314" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I91" s="314" t="s">
         <v>64</v>
@@ -16534,7 +16321,7 @@
     </row>
     <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="117" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -16545,7 +16332,7 @@
       <c r="F92" s="144"/>
       <c r="G92" s="145"/>
       <c r="H92" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I92" s="141" t="s">
         <v>64</v>
@@ -16565,14 +16352,14 @@
         <v>43658</v>
       </c>
       <c r="P92" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q92" s="148"/>
       <c r="R92" s="150"/>
     </row>
     <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="117" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -16583,7 +16370,7 @@
       <c r="F93" s="318"/>
       <c r="G93" s="319"/>
       <c r="H93" s="314" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I93" s="314" t="s">
         <v>64</v>
@@ -16600,7 +16387,7 @@
     </row>
     <row r="94" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="117" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -16611,7 +16398,7 @@
       <c r="F94" s="144"/>
       <c r="G94" s="145"/>
       <c r="H94" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I94" s="141" t="s">
         <v>64</v>
@@ -16631,14 +16418,14 @@
         <v>43658</v>
       </c>
       <c r="P94" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q94" s="148"/>
       <c r="R94" s="150"/>
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="117" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -16649,7 +16436,7 @@
       <c r="F95" s="144"/>
       <c r="G95" s="145"/>
       <c r="H95" s="135" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I95" s="135" t="s">
         <v>64</v>
@@ -16669,14 +16456,14 @@
         <v>43658</v>
       </c>
       <c r="P95" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q95" s="33"/>
       <c r="R95" s="150"/>
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="117" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -16687,7 +16474,7 @@
       <c r="F96" s="318"/>
       <c r="G96" s="319"/>
       <c r="H96" s="314" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I96" s="314" t="s">
         <v>64</v>
@@ -16704,7 +16491,7 @@
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="117" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -16713,13 +16500,13 @@
       </c>
       <c r="E97" s="317"/>
       <c r="F97" s="318" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G97" s="319" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="H97" s="308" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I97" s="308" t="s">
         <v>64</v>
@@ -16736,18 +16523,18 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="117" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
       <c r="D98" s="51" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E98" s="52"/>
       <c r="F98" s="144"/>
       <c r="G98" s="145"/>
       <c r="H98" s="141" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I98" s="141" t="s">
         <v>64</v>
@@ -16767,25 +16554,25 @@
         <v>43658</v>
       </c>
       <c r="P98" s="149" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q98" s="148"/>
       <c r="R98" s="150"/>
     </row>
     <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="117" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
       <c r="D99" s="70" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="E99" s="71"/>
       <c r="F99" s="318"/>
       <c r="G99" s="319"/>
       <c r="H99" s="314" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I99" s="314" t="s">
         <v>64</v>
@@ -16802,7 +16589,7 @@
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="155" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B100" s="41"/>
       <c r="C100" s="41"/>
@@ -16813,7 +16600,7 @@
       <c r="F100" s="144"/>
       <c r="G100" s="145"/>
       <c r="H100" s="156" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I100" s="156" t="s">
         <v>64</v>
@@ -16822,7 +16609,7 @@
         <v>187</v>
       </c>
       <c r="K100" s="157" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="L100" s="158"/>
       <c r="M100" s="159"/>
@@ -16833,29 +16620,29 @@
         <v>43658</v>
       </c>
       <c r="P100" s="161" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q100" s="160"/>
       <c r="R100" s="162"/>
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="163" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B101" s="41"/>
       <c r="C101" s="41"/>
       <c r="D101" s="70" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E101" s="71"/>
       <c r="F101" s="318" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G101" s="319" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="H101" s="65" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I101" s="65" t="s">
         <v>64</v>
@@ -16872,7 +16659,7 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="155" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B102" s="72"/>
       <c r="C102" s="72"/>
@@ -16881,16 +16668,16 @@
       </c>
       <c r="E102" s="335"/>
       <c r="F102" s="318" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G102" s="319" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="H102" s="336" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I102" s="336" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J102" s="337"/>
       <c r="K102" s="337"/>
@@ -17141,7 +16928,7 @@
         <v>208</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -17152,7 +16939,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -17181,14 +16968,12 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>233</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="38" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -17203,10 +16988,10 @@
         <v>86</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H10" s="344" t="s">
         <v>12</v>
@@ -17224,7 +17009,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -17277,14 +17062,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="352"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="93" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="167" t="s">
@@ -17295,10 +17080,10 @@
       <c r="F12" s="404"/>
       <c r="G12" s="405"/>
       <c r="H12" s="406" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="I12" s="407" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J12" s="407"/>
       <c r="K12" s="407"/>
@@ -17312,7 +17097,7 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A13" s="353" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="354" t="s">
@@ -17344,7 +17129,7 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1">
       <c r="A14" s="353" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B14" s="100"/>
       <c r="C14" s="37"/>
@@ -17400,7 +17185,7 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
       <c r="A16" s="353" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="37"/>
@@ -17428,7 +17213,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="113" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="114"/>
@@ -17456,7 +17241,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A18" s="113" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="41"/>
@@ -17484,7 +17269,7 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="355" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="41"/>
@@ -17492,16 +17277,16 @@
         <v>81</v>
       </c>
       <c r="E19" s="452" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F19" s="453" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G19" s="454" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H19" s="455" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I19" s="456" t="s">
         <v>30</v>
@@ -17518,22 +17303,22 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="356" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="41"/>
       <c r="D20" s="188"/>
       <c r="E20" s="420" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F20" s="410" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G20" s="411" t="s">
         <v>226</v>
       </c>
       <c r="H20" s="463" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I20" s="464" t="s">
         <v>30</v>
@@ -17550,22 +17335,22 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="355" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="41"/>
       <c r="D21" s="188"/>
       <c r="E21" s="420" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F21" s="410" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G21" s="411" t="s">
         <v>226</v>
       </c>
       <c r="H21" s="463" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I21" s="464" t="s">
         <v>30</v>
@@ -17582,22 +17367,22 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="355" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="41"/>
       <c r="D22" s="188"/>
       <c r="E22" s="420" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F22" s="410" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G22" s="411" t="s">
         <v>226</v>
       </c>
       <c r="H22" s="463" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I22" s="464" t="s">
         <v>30</v>
@@ -17612,20 +17397,20 @@
       <c r="Q22" s="467"/>
       <c r="R22" s="439"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="355" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="188"/>
+      <c r="D23" s="451" t="s">
+        <v>81</v>
+      </c>
       <c r="E23" s="470" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="410"/>
-      <c r="G23" s="411" t="s">
-        <v>437</v>
-      </c>
+      <c r="G23" s="411"/>
       <c r="H23" s="463" t="s">
         <v>78</v>
       </c>
@@ -17644,7 +17429,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="355" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="114"/>
@@ -17653,9 +17438,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="410"/>
-      <c r="G24" s="411" t="s">
-        <v>226</v>
-      </c>
+      <c r="G24" s="411"/>
       <c r="H24" s="463" t="s">
         <v>78</v>
       </c>
@@ -17674,7 +17457,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="355" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="114"/>
@@ -17683,9 +17466,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="410"/>
-      <c r="G25" s="411" t="s">
-        <v>226</v>
-      </c>
+      <c r="G25" s="411"/>
       <c r="H25" s="463" t="s">
         <v>78</v>
       </c>
@@ -17704,7 +17485,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="355" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="114"/>
@@ -17713,9 +17494,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="410"/>
-      <c r="G26" s="411" t="s">
-        <v>226</v>
-      </c>
+      <c r="G26" s="411"/>
       <c r="H26" s="463" t="s">
         <v>78</v>
       </c>
@@ -17734,7 +17513,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="355" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="114"/>
@@ -17743,9 +17522,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="410"/>
-      <c r="G27" s="411" t="s">
-        <v>226</v>
-      </c>
+      <c r="G27" s="411"/>
       <c r="H27" s="463" t="s">
         <v>78</v>
       </c>
@@ -17764,7 +17541,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="355" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="41"/>
@@ -17773,9 +17550,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="271"/>
-      <c r="G28" s="272" t="s">
-        <v>443</v>
-      </c>
+      <c r="G28" s="272"/>
       <c r="H28" s="471" t="s">
         <v>78</v>
       </c>
@@ -17794,7 +17569,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="355" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="41"/>
@@ -17803,9 +17578,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="206"/>
-      <c r="G29" s="207" t="s">
-        <v>226</v>
-      </c>
+      <c r="G29" s="207"/>
       <c r="H29" s="189" t="s">
         <v>78</v>
       </c>
@@ -17824,20 +17597,20 @@
     </row>
     <row r="30" spans="1:18" ht="22.5">
       <c r="A30" s="113" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="41"/>
       <c r="D30" s="65" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F30" s="206"/>
       <c r="G30" s="207"/>
       <c r="H30" s="189" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I30" s="479" t="s">
         <v>157</v>
@@ -17854,15 +17627,15 @@
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="113" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="37"/>
       <c r="D31" s="480" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E31" s="209" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F31" s="206"/>
       <c r="G31" s="207"/>
@@ -17884,13 +17657,13 @@
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="113" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B32" s="100"/>
       <c r="C32" s="37"/>
       <c r="D32" s="68"/>
       <c r="E32" s="209" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F32" s="206"/>
       <c r="G32" s="207"/>
@@ -17912,7 +17685,7 @@
     </row>
     <row r="33" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A33" s="113" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B33" s="100"/>
       <c r="C33" s="37"/>
@@ -17921,9 +17694,7 @@
         <v>103</v>
       </c>
       <c r="F33" s="206"/>
-      <c r="G33" s="207" t="s">
-        <v>273</v>
-      </c>
+      <c r="G33" s="207"/>
       <c r="H33" s="481" t="s">
         <v>138</v>
       </c>
@@ -17951,9 +17722,7 @@
         <v>104</v>
       </c>
       <c r="F34" s="206"/>
-      <c r="G34" s="207" t="s">
-        <v>226</v>
-      </c>
+      <c r="G34" s="207"/>
       <c r="H34" s="481" t="s">
         <v>138</v>
       </c>
@@ -17981,9 +17750,7 @@
         <v>105</v>
       </c>
       <c r="F35" s="206"/>
-      <c r="G35" s="207" t="s">
-        <v>226</v>
-      </c>
+      <c r="G35" s="207"/>
       <c r="H35" s="481" t="s">
         <v>138</v>
       </c>
@@ -18008,12 +17775,10 @@
       <c r="C36" s="37"/>
       <c r="D36" s="68"/>
       <c r="E36" s="209" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F36" s="206"/>
-      <c r="G36" s="207" t="s">
-        <v>226</v>
-      </c>
+      <c r="G36" s="207"/>
       <c r="H36" s="481" t="s">
         <v>138</v>
       </c>
@@ -18046,7 +17811,7 @@
         <v>35</v>
       </c>
       <c r="I37" s="482" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J37" s="482"/>
       <c r="K37" s="482"/>
@@ -18060,7 +17825,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="113" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="37"/>
@@ -18074,7 +17839,7 @@
         <v>35</v>
       </c>
       <c r="I38" s="482" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J38" s="482"/>
       <c r="K38" s="482"/>
@@ -18088,13 +17853,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="113" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="37"/>
       <c r="D39" s="69"/>
       <c r="E39" s="209" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F39" s="206"/>
       <c r="G39" s="207"/>
@@ -18102,7 +17867,7 @@
         <v>35</v>
       </c>
       <c r="I39" s="482" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J39" s="482"/>
       <c r="K39" s="482"/>
@@ -18116,7 +17881,7 @@
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="117" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="37"/>
@@ -18124,7 +17889,7 @@
         <v>108</v>
       </c>
       <c r="E40" s="209" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F40" s="206"/>
       <c r="G40" s="207"/>
@@ -18146,7 +17911,7 @@
     </row>
     <row r="41" spans="1:18" ht="45">
       <c r="A41" s="117" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B41" s="100"/>
       <c r="C41" s="37"/>
@@ -18155,9 +17920,7 @@
         <v>109</v>
       </c>
       <c r="F41" s="206"/>
-      <c r="G41" s="207" t="s">
-        <v>273</v>
-      </c>
+      <c r="G41" s="207"/>
       <c r="H41" s="481" t="s">
         <v>138</v>
       </c>
@@ -18176,7 +17939,7 @@
     </row>
     <row r="42" spans="1:18" ht="54.75" customHeight="1">
       <c r="A42" s="117" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B42" s="100"/>
       <c r="C42" s="37"/>
@@ -18185,9 +17948,7 @@
         <v>110</v>
       </c>
       <c r="F42" s="206"/>
-      <c r="G42" s="207" t="s">
-        <v>226</v>
-      </c>
+      <c r="G42" s="207"/>
       <c r="H42" s="481" t="s">
         <v>138</v>
       </c>
@@ -18212,12 +17973,10 @@
       <c r="C43" s="37"/>
       <c r="D43" s="68"/>
       <c r="E43" s="209" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F43" s="206"/>
-      <c r="G43" s="207" t="s">
-        <v>226</v>
-      </c>
+      <c r="G43" s="207"/>
       <c r="H43" s="481" t="s">
         <v>138</v>
       </c>
@@ -18242,7 +18001,7 @@
       <c r="C44" s="37"/>
       <c r="D44" s="68"/>
       <c r="E44" s="492" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F44" s="206"/>
       <c r="G44" s="207"/>
@@ -18250,7 +18009,7 @@
         <v>35</v>
       </c>
       <c r="I44" s="494" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J44" s="494"/>
       <c r="K44" s="494"/>
@@ -18264,7 +18023,7 @@
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="117" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B45" s="118"/>
       <c r="C45" s="580" t="s">
@@ -18272,17 +18031,15 @@
       </c>
       <c r="D45" s="499"/>
       <c r="E45" s="499" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F45" s="500"/>
-      <c r="G45" s="501" t="s">
-        <v>452</v>
-      </c>
+      <c r="G45" s="501"/>
       <c r="H45" s="502" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="I45" s="503" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="J45" s="503"/>
       <c r="K45" s="503"/>
@@ -18296,23 +18053,21 @@
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="117" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B46" s="118"/>
       <c r="C46" s="64"/>
       <c r="D46" s="68"/>
       <c r="E46" s="508" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F46" s="509"/>
-      <c r="G46" s="510" t="s">
-        <v>226</v>
-      </c>
+      <c r="G46" s="510"/>
       <c r="H46" s="511" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="I46" s="512" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="J46" s="512"/>
       <c r="K46" s="512"/>
@@ -18326,23 +18081,21 @@
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="117" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B47" s="118"/>
       <c r="C47" s="64"/>
       <c r="D47" s="68"/>
       <c r="E47" s="517" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F47" s="518"/>
-      <c r="G47" s="519" t="s">
-        <v>226</v>
-      </c>
+      <c r="G47" s="519"/>
       <c r="H47" s="520" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I47" s="521" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J47" s="521"/>
       <c r="K47" s="521"/>
@@ -18356,20 +18109,18 @@
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="117" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B48" s="118"/>
       <c r="C48" s="64"/>
       <c r="D48" s="68"/>
       <c r="E48" s="526" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F48" s="527"/>
-      <c r="G48" s="528" t="s">
-        <v>226</v>
-      </c>
+      <c r="G48" s="528"/>
       <c r="H48" s="529" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I48" s="530" t="s">
         <v>157</v>
@@ -18386,20 +18137,18 @@
     </row>
     <row r="49" spans="1:18" ht="33.75">
       <c r="A49" s="117" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B49" s="118"/>
       <c r="C49" s="64"/>
       <c r="D49" s="68"/>
       <c r="E49" s="535" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F49" s="536"/>
-      <c r="G49" s="537" t="s">
-        <v>226</v>
-      </c>
+      <c r="G49" s="537"/>
       <c r="H49" s="538" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I49" s="539" t="s">
         <v>157</v>
@@ -18416,23 +18165,21 @@
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="117" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B50" s="118"/>
       <c r="C50" s="64"/>
       <c r="D50" s="68"/>
       <c r="E50" s="544" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F50" s="545"/>
-      <c r="G50" s="546" t="s">
-        <v>226</v>
-      </c>
+      <c r="G50" s="546"/>
       <c r="H50" s="547" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I50" s="548" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J50" s="548"/>
       <c r="K50" s="548"/>
@@ -18446,23 +18193,21 @@
     </row>
     <row r="51" spans="1:18" ht="22.5">
       <c r="A51" s="117" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B51" s="118"/>
       <c r="C51" s="64"/>
       <c r="D51" s="68"/>
       <c r="E51" s="553" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F51" s="554"/>
-      <c r="G51" s="555" t="s">
-        <v>226</v>
-      </c>
+      <c r="G51" s="555"/>
       <c r="H51" s="556" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I51" s="557" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J51" s="557"/>
       <c r="K51" s="557"/>
@@ -18476,23 +18221,21 @@
     </row>
     <row r="52" spans="1:18" ht="22.5">
       <c r="A52" s="117" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B52" s="118"/>
       <c r="C52" s="64"/>
       <c r="D52" s="68"/>
       <c r="E52" s="562" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F52" s="563"/>
-      <c r="G52" s="564" t="s">
-        <v>226</v>
-      </c>
+      <c r="G52" s="564"/>
       <c r="H52" s="565" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I52" s="566" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J52" s="566"/>
       <c r="K52" s="566"/>
@@ -18506,20 +18249,18 @@
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="117" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B53" s="119"/>
       <c r="C53" s="269"/>
       <c r="D53" s="68"/>
       <c r="E53" s="571" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F53" s="572"/>
-      <c r="G53" s="573" t="s">
-        <v>226</v>
-      </c>
+      <c r="G53" s="573"/>
       <c r="H53" s="574" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I53" s="575" t="s">
         <v>157</v>
@@ -18536,7 +18277,7 @@
     </row>
     <row r="54" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A54" s="117" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>37</v>
@@ -18545,10 +18286,10 @@
         <v>38</v>
       </c>
       <c r="D54" s="357" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E54" s="358" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F54" s="359"/>
       <c r="G54" s="360"/>
@@ -18573,7 +18314,7 @@
         <v>43658</v>
       </c>
       <c r="P54" s="127" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q54" s="50"/>
       <c r="R54" s="362"/>
@@ -18589,9 +18330,7 @@
         <v>41</v>
       </c>
       <c r="F55" s="572"/>
-      <c r="G55" s="573" t="s">
-        <v>344</v>
-      </c>
+      <c r="G55" s="573"/>
       <c r="H55" s="582" t="s">
         <v>39</v>
       </c>
@@ -18610,7 +18349,7 @@
     </row>
     <row r="56" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A56" s="117" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -18619,9 +18358,7 @@
         <v>42</v>
       </c>
       <c r="F56" s="572"/>
-      <c r="G56" s="573" t="s">
-        <v>226</v>
-      </c>
+      <c r="G56" s="573"/>
       <c r="H56" s="582" t="s">
         <v>39</v>
       </c>
@@ -18640,7 +18377,7 @@
     </row>
     <row r="57" spans="1:18" s="43" customFormat="1" ht="33.75">
       <c r="A57" s="117" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -18671,7 +18408,7 @@
         <v>43658</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="367"/>
@@ -18687,9 +18424,7 @@
         <v>44</v>
       </c>
       <c r="F58" s="572"/>
-      <c r="G58" s="573" t="s">
-        <v>344</v>
-      </c>
+      <c r="G58" s="573"/>
       <c r="H58" s="582" t="s">
         <v>39</v>
       </c>
@@ -18708,20 +18443,18 @@
     </row>
     <row r="59" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A59" s="117" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
       <c r="D59" s="368" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E59" s="585" t="s">
         <v>45</v>
       </c>
       <c r="F59" s="586"/>
-      <c r="G59" s="587" t="s">
-        <v>227</v>
-      </c>
+      <c r="G59" s="587"/>
       <c r="H59" s="588" t="s">
         <v>39</v>
       </c>
@@ -18740,7 +18473,7 @@
     </row>
     <row r="60" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A60" s="117" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -18749,9 +18482,7 @@
         <v>46</v>
       </c>
       <c r="F60" s="586"/>
-      <c r="G60" s="587" t="s">
-        <v>355</v>
-      </c>
+      <c r="G60" s="587"/>
       <c r="H60" s="588" t="s">
         <v>39</v>
       </c>
@@ -18770,7 +18501,7 @@
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="117" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -18801,14 +18532,14 @@
         <v>43658</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="373"/>
     </row>
     <row r="62" spans="1:18" s="32" customFormat="1">
       <c r="A62" s="117" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -18838,7 +18569,7 @@
     </row>
     <row r="63" spans="1:18" s="32" customFormat="1">
       <c r="A63" s="117" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -18866,7 +18597,7 @@
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="117" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -18879,7 +18610,7 @@
       <c r="F64" s="369"/>
       <c r="G64" s="370"/>
       <c r="H64" s="371" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I64" s="371" t="s">
         <v>53</v>
@@ -18899,14 +18630,14 @@
         <v>43658</v>
       </c>
       <c r="P64" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="373"/>
     </row>
     <row r="65" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="117" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -18917,7 +18648,7 @@
       <c r="F65" s="369"/>
       <c r="G65" s="370"/>
       <c r="H65" s="371" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I65" s="371" t="s">
         <v>53</v>
@@ -18937,14 +18668,14 @@
         <v>43658</v>
       </c>
       <c r="P65" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="373"/>
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="117" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -18953,11 +18684,9 @@
         <v>163</v>
       </c>
       <c r="F66" s="586"/>
-      <c r="G66" s="587" t="s">
-        <v>228</v>
-      </c>
+      <c r="G66" s="587"/>
       <c r="H66" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I66" s="588" t="s">
         <v>53</v>
@@ -18974,7 +18703,7 @@
     </row>
     <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="117" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -18983,13 +18712,13 @@
         <v>164</v>
       </c>
       <c r="F67" s="586" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G67" s="587" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H67" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I67" s="588" t="s">
         <v>53</v>
@@ -19006,7 +18735,7 @@
     </row>
     <row r="68" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="117" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -19015,11 +18744,9 @@
         <v>111</v>
       </c>
       <c r="F68" s="586"/>
-      <c r="G68" s="587" t="s">
-        <v>366</v>
-      </c>
+      <c r="G68" s="587"/>
       <c r="H68" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I68" s="588" t="s">
         <v>53</v>
@@ -19036,20 +18763,18 @@
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="117" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
       <c r="E69" s="589" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F69" s="586"/>
-      <c r="G69" s="587" t="s">
-        <v>226</v>
-      </c>
+      <c r="G69" s="587"/>
       <c r="H69" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I69" s="588" t="s">
         <v>53</v>
@@ -19066,7 +18791,7 @@
     </row>
     <row r="70" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="117" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -19075,11 +18800,9 @@
         <v>112</v>
       </c>
       <c r="F70" s="586"/>
-      <c r="G70" s="587" t="s">
-        <v>230</v>
-      </c>
+      <c r="G70" s="587"/>
       <c r="H70" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I70" s="588" t="s">
         <v>53</v>
@@ -19096,20 +18819,18 @@
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="117" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
       <c r="D71" s="42"/>
       <c r="E71" s="589" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F71" s="586"/>
-      <c r="G71" s="587" t="s">
-        <v>226</v>
-      </c>
+      <c r="G71" s="587"/>
       <c r="H71" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I71" s="588" t="s">
         <v>53</v>
@@ -19126,7 +18847,7 @@
     </row>
     <row r="72" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="117" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -19134,15 +18855,15 @@
         <v>161</v>
       </c>
       <c r="E72" s="589" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="F72" s="586"/>
       <c r="G72" s="587"/>
       <c r="H72" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I72" s="66" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="J72" s="589"/>
       <c r="K72" s="589"/>
@@ -19156,7 +18877,7 @@
     </row>
     <row r="73" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="117" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -19169,7 +18890,7 @@
       <c r="F73" s="586"/>
       <c r="G73" s="587"/>
       <c r="H73" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I73" s="591" t="s">
         <v>57</v>
@@ -19186,18 +18907,18 @@
     </row>
     <row r="74" spans="1:18" s="32" customFormat="1">
       <c r="A74" s="117" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="65"/>
       <c r="E74" s="589" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F74" s="586"/>
       <c r="G74" s="587"/>
       <c r="H74" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I74" s="591" t="s">
         <v>57</v>
@@ -19214,7 +18935,7 @@
     </row>
     <row r="75" spans="1:18" s="32" customFormat="1">
       <c r="A75" s="117" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -19225,7 +18946,7 @@
       <c r="F75" s="586"/>
       <c r="G75" s="587"/>
       <c r="H75" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I75" s="591" t="s">
         <v>57</v>
@@ -19242,7 +18963,7 @@
     </row>
     <row r="76" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="117" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -19255,7 +18976,7 @@
       <c r="F76" s="586"/>
       <c r="G76" s="587"/>
       <c r="H76" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I76" s="591" t="s">
         <v>57</v>
@@ -19272,7 +18993,7 @@
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1">
       <c r="A77" s="117" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -19283,7 +19004,7 @@
       <c r="F77" s="586"/>
       <c r="G77" s="587"/>
       <c r="H77" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I77" s="591" t="s">
         <v>57</v>
@@ -19300,7 +19021,7 @@
     </row>
     <row r="78" spans="1:18" s="32" customFormat="1">
       <c r="A78" s="117" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -19311,7 +19032,7 @@
       <c r="F78" s="586"/>
       <c r="G78" s="587"/>
       <c r="H78" s="588" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I78" s="591" t="s">
         <v>57</v>
@@ -19328,7 +19049,7 @@
     </row>
     <row r="79" spans="1:18" s="32" customFormat="1">
       <c r="A79" s="117" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -19339,7 +19060,7 @@
       <c r="F79" s="594"/>
       <c r="G79" s="595"/>
       <c r="H79" s="596" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I79" s="597" t="s">
         <v>57</v>
@@ -19356,7 +19077,7 @@
     </row>
     <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="117" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -19365,10 +19086,10 @@
       </c>
       <c r="E80" s="600"/>
       <c r="F80" s="601" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G80" s="602" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="H80" s="603" t="s">
         <v>35</v>
@@ -19388,7 +19109,7 @@
     </row>
     <row r="81" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A81" s="117" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B81" s="41"/>
       <c r="C81" s="377" t="s">
@@ -19401,7 +19122,7 @@
       <c r="F81" s="381"/>
       <c r="G81" s="382"/>
       <c r="H81" s="377" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I81" s="377" t="s">
         <v>64</v>
@@ -19421,14 +19142,14 @@
         <v>43658</v>
       </c>
       <c r="P81" s="386" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q81" s="385"/>
       <c r="R81" s="387"/>
     </row>
     <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="117" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -19441,7 +19162,7 @@
       <c r="F82" s="381"/>
       <c r="G82" s="382"/>
       <c r="H82" s="377" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I82" s="377" t="s">
         <v>64</v>
@@ -19461,25 +19182,25 @@
         <v>43658</v>
       </c>
       <c r="P82" s="386" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q82" s="385"/>
       <c r="R82" s="387"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="117" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="388"/>
       <c r="E83" s="607" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F83" s="608"/>
       <c r="G83" s="609"/>
       <c r="H83" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I83" s="604" t="s">
         <v>64</v>
@@ -19496,7 +19217,7 @@
     </row>
     <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="117" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -19507,7 +19228,7 @@
       <c r="F84" s="381"/>
       <c r="G84" s="382"/>
       <c r="H84" s="377" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I84" s="377" t="s">
         <v>64</v>
@@ -19527,14 +19248,14 @@
         <v>43658</v>
       </c>
       <c r="P84" s="386" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q84" s="385"/>
       <c r="R84" s="387"/>
     </row>
     <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="117" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -19545,7 +19266,7 @@
       <c r="F85" s="381"/>
       <c r="G85" s="382"/>
       <c r="H85" s="377" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I85" s="377" t="s">
         <v>64</v>
@@ -19565,14 +19286,14 @@
         <v>43658</v>
       </c>
       <c r="P85" s="386" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q85" s="385"/>
       <c r="R85" s="387"/>
     </row>
     <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="117" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -19583,7 +19304,7 @@
       <c r="F86" s="381"/>
       <c r="G86" s="382"/>
       <c r="H86" s="377" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I86" s="377" t="s">
         <v>64</v>
@@ -19603,29 +19324,29 @@
         <v>43658</v>
       </c>
       <c r="P86" s="386" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q86" s="385"/>
       <c r="R86" s="387"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="117" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
       <c r="D87" s="616" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="E87" s="617"/>
       <c r="F87" s="608" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G87" s="609" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="H87" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I87" s="604" t="s">
         <v>64</v>
@@ -19642,7 +19363,7 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="117" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -19651,13 +19372,13 @@
       </c>
       <c r="E88" s="617"/>
       <c r="F88" s="608" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G88" s="609" t="s">
         <v>226</v>
       </c>
       <c r="H88" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I88" s="604" t="s">
         <v>64</v>
@@ -19674,7 +19395,7 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="117" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -19683,13 +19404,13 @@
       </c>
       <c r="E89" s="617"/>
       <c r="F89" s="608" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G89" s="609" t="s">
         <v>226</v>
       </c>
       <c r="H89" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I89" s="604" t="s">
         <v>64</v>
@@ -19706,7 +19427,7 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="117" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -19715,13 +19436,13 @@
       </c>
       <c r="E90" s="617"/>
       <c r="F90" s="608" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G90" s="609" t="s">
         <v>226</v>
       </c>
       <c r="H90" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I90" s="604" t="s">
         <v>64</v>
@@ -19738,7 +19459,7 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="117" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -19747,13 +19468,13 @@
       </c>
       <c r="E91" s="617"/>
       <c r="F91" s="608" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G91" s="609" t="s">
         <v>226</v>
       </c>
       <c r="H91" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I91" s="604" t="s">
         <v>64</v>
@@ -19770,7 +19491,7 @@
     </row>
     <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="117" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -19781,7 +19502,7 @@
       <c r="F92" s="381"/>
       <c r="G92" s="382"/>
       <c r="H92" s="377" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I92" s="377" t="s">
         <v>64</v>
@@ -19801,14 +19522,14 @@
         <v>43658</v>
       </c>
       <c r="P92" s="386" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q92" s="385"/>
       <c r="R92" s="387"/>
     </row>
     <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="117" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -19819,7 +19540,7 @@
       <c r="F93" s="608"/>
       <c r="G93" s="609"/>
       <c r="H93" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I93" s="604" t="s">
         <v>64</v>
@@ -19836,7 +19557,7 @@
     </row>
     <row r="94" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="117" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -19847,7 +19568,7 @@
       <c r="F94" s="608"/>
       <c r="G94" s="609"/>
       <c r="H94" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I94" s="604" t="s">
         <v>64</v>
@@ -19864,7 +19585,7 @@
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="117" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -19875,7 +19596,7 @@
       <c r="F95" s="608"/>
       <c r="G95" s="609"/>
       <c r="H95" s="618" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I95" s="618" t="s">
         <v>64</v>
@@ -19892,7 +19613,7 @@
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="117" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -19903,7 +19624,7 @@
       <c r="F96" s="608"/>
       <c r="G96" s="609"/>
       <c r="H96" s="604" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I96" s="604" t="s">
         <v>64</v>
@@ -19920,7 +19641,7 @@
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="117" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -19929,13 +19650,13 @@
       </c>
       <c r="E97" s="617"/>
       <c r="F97" s="608" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G97" s="609" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="H97" s="618" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I97" s="618" t="s">
         <v>64</v>
@@ -19952,18 +19673,18 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="117" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
       <c r="D98" s="70" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E98" s="71"/>
       <c r="F98" s="601"/>
       <c r="G98" s="602"/>
       <c r="H98" s="597" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I98" s="597" t="s">
         <v>64</v>
@@ -19980,18 +19701,18 @@
     </row>
     <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="117" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
       <c r="D99" s="70" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="E99" s="71"/>
       <c r="F99" s="601"/>
       <c r="G99" s="602"/>
       <c r="H99" s="597" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I99" s="597" t="s">
         <v>64</v>
@@ -20008,7 +19729,7 @@
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="391" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B100" s="41"/>
       <c r="C100" s="41"/>
@@ -20019,7 +19740,7 @@
       <c r="F100" s="375"/>
       <c r="G100" s="376"/>
       <c r="H100" s="392" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I100" s="392" t="s">
         <v>64</v>
@@ -20039,29 +19760,29 @@
         <v>43658</v>
       </c>
       <c r="P100" s="397" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q100" s="396"/>
       <c r="R100" s="398"/>
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="163" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B101" s="41"/>
       <c r="C101" s="41"/>
       <c r="D101" s="70" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E101" s="71"/>
       <c r="F101" s="601" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G101" s="602" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="H101" s="65" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I101" s="65" t="s">
         <v>64</v>
@@ -20078,7 +19799,7 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="391" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B102" s="72"/>
       <c r="C102" s="72"/>
@@ -20087,16 +19808,16 @@
       </c>
       <c r="E102" s="335"/>
       <c r="F102" s="601" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G102" s="602" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="H102" s="625" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I102" s="625" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J102" s="626"/>
       <c r="K102" s="626"/>
@@ -20347,7 +20068,7 @@
         <v>208</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -20358,7 +20079,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -20387,14 +20108,12 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>233</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="38" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -20409,10 +20128,10 @@
         <v>86</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H10" s="633" t="s">
         <v>12</v>
@@ -20430,7 +20149,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
@@ -20483,14 +20202,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="639"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="635" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="167" t="s">
@@ -20501,10 +20220,10 @@
       <c r="F12" s="170"/>
       <c r="G12" s="171"/>
       <c r="H12" s="59" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="I12" s="681" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J12" s="681"/>
       <c r="K12" s="681"/>
@@ -20518,7 +20237,7 @@
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A13" s="635" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="640" t="s">
@@ -20550,7 +20269,7 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1">
       <c r="A14" s="635" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B14" s="100"/>
       <c r="C14" s="37"/>
@@ -20606,7 +20325,7 @@
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
       <c r="A16" s="635" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="37"/>
@@ -20634,7 +20353,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="113" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="114"/>
@@ -20662,7 +20381,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A18" s="113" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="41"/>
@@ -20693,14 +20412,14 @@
         <v>43658</v>
       </c>
       <c r="P18" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="33"/>
       <c r="R18" s="642"/>
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="645" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="41"/>
@@ -20708,16 +20427,16 @@
         <v>81</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F19" s="170" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G19" s="171" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H19" s="702" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I19" s="706" t="s">
         <v>30</v>
@@ -20734,22 +20453,22 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="645" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="41"/>
       <c r="D20" s="188"/>
       <c r="E20" s="694" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F20" s="684" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G20" s="685" t="s">
         <v>226</v>
       </c>
       <c r="H20" s="707" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I20" s="708" t="s">
         <v>30</v>
@@ -20766,22 +20485,22 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="645" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="41"/>
       <c r="D21" s="188"/>
       <c r="E21" s="694" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F21" s="684" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G21" s="685" t="s">
         <v>226</v>
       </c>
       <c r="H21" s="707" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I21" s="708" t="s">
         <v>30</v>
@@ -20798,22 +20517,22 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="645" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="41"/>
       <c r="D22" s="188"/>
       <c r="E22" s="694" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F22" s="684" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G22" s="685" t="s">
         <v>226</v>
       </c>
       <c r="H22" s="707" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I22" s="708" t="s">
         <v>30</v>
@@ -20828,20 +20547,20 @@
       <c r="Q22" s="711"/>
       <c r="R22" s="704"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="645" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="188"/>
+      <c r="D23" s="705" t="s">
+        <v>81</v>
+      </c>
       <c r="E23" s="714" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="684"/>
-      <c r="G23" s="685" t="s">
-        <v>437</v>
-      </c>
+      <c r="G23" s="685"/>
       <c r="H23" s="707" t="s">
         <v>78</v>
       </c>
@@ -20860,7 +20579,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="645" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="114"/>
@@ -20869,9 +20588,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="684"/>
-      <c r="G24" s="685" t="s">
-        <v>226</v>
-      </c>
+      <c r="G24" s="685"/>
       <c r="H24" s="707" t="s">
         <v>78</v>
       </c>
@@ -20890,7 +20607,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="645" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="114"/>
@@ -20899,9 +20616,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="684"/>
-      <c r="G25" s="685" t="s">
-        <v>226</v>
-      </c>
+      <c r="G25" s="685"/>
       <c r="H25" s="707" t="s">
         <v>78</v>
       </c>
@@ -20920,7 +20635,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="645" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="114"/>
@@ -20929,9 +20644,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="684"/>
-      <c r="G26" s="685" t="s">
-        <v>226</v>
-      </c>
+      <c r="G26" s="685"/>
       <c r="H26" s="707" t="s">
         <v>78</v>
       </c>
@@ -20950,7 +20663,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="645" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="114"/>
@@ -20959,9 +20672,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="684"/>
-      <c r="G27" s="685" t="s">
-        <v>226</v>
-      </c>
+      <c r="G27" s="685"/>
       <c r="H27" s="707" t="s">
         <v>78</v>
       </c>
@@ -20980,7 +20691,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="645" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="41"/>
@@ -20989,9 +20700,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="684"/>
-      <c r="G28" s="685" t="s">
-        <v>443</v>
-      </c>
+      <c r="G28" s="685"/>
       <c r="H28" s="707" t="s">
         <v>78</v>
       </c>
@@ -21010,7 +20719,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="645" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="41"/>
@@ -21019,9 +20728,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="684"/>
-      <c r="G29" s="685" t="s">
-        <v>226</v>
-      </c>
+      <c r="G29" s="685"/>
       <c r="H29" s="707" t="s">
         <v>78</v>
       </c>
@@ -21040,23 +20747,23 @@
     </row>
     <row r="30" spans="1:18" ht="22.5">
       <c r="A30" s="113" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="41"/>
       <c r="D30" s="65" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F30" s="715"/>
       <c r="G30" s="716"/>
       <c r="H30" s="717" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I30" s="718" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J30" s="598"/>
       <c r="K30" s="598"/>
@@ -21070,15 +20777,15 @@
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="113" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="37"/>
       <c r="D31" s="724" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E31" s="725" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F31" s="586"/>
       <c r="G31" s="587"/>
@@ -21100,13 +20807,13 @@
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="113" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B32" s="100"/>
       <c r="C32" s="37"/>
       <c r="D32" s="68"/>
       <c r="E32" s="725" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F32" s="586"/>
       <c r="G32" s="587"/>
@@ -21128,18 +20835,16 @@
     </row>
     <row r="33" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A33" s="113" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B33" s="100"/>
       <c r="C33" s="37"/>
       <c r="D33" s="68"/>
       <c r="E33" s="725" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F33" s="586"/>
-      <c r="G33" s="587" t="s">
-        <v>482</v>
-      </c>
+      <c r="G33" s="587"/>
       <c r="H33" s="726" t="s">
         <v>138</v>
       </c>
@@ -21158,18 +20863,16 @@
     </row>
     <row r="34" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="113" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B34" s="100"/>
       <c r="C34" s="37"/>
       <c r="D34" s="68"/>
       <c r="E34" s="725" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F34" s="586"/>
-      <c r="G34" s="587" t="s">
-        <v>226</v>
-      </c>
+      <c r="G34" s="587"/>
       <c r="H34" s="726" t="s">
         <v>138</v>
       </c>
@@ -21188,18 +20891,16 @@
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="113" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B35" s="100"/>
       <c r="C35" s="37"/>
       <c r="D35" s="68"/>
       <c r="E35" s="725" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="F35" s="586"/>
-      <c r="G35" s="587" t="s">
-        <v>226</v>
-      </c>
+      <c r="G35" s="587"/>
       <c r="H35" s="726" t="s">
         <v>138</v>
       </c>
@@ -21218,18 +20919,16 @@
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="113" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="B36" s="100"/>
       <c r="C36" s="37"/>
       <c r="D36" s="68"/>
       <c r="E36" s="725" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="F36" s="586"/>
-      <c r="G36" s="587" t="s">
-        <v>226</v>
-      </c>
+      <c r="G36" s="587"/>
       <c r="H36" s="726" t="s">
         <v>138</v>
       </c>
@@ -21248,21 +20947,21 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="113" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B37" s="100"/>
       <c r="C37" s="37"/>
       <c r="D37" s="68"/>
       <c r="E37" s="725" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="F37" s="586"/>
       <c r="G37" s="587"/>
       <c r="H37" s="726" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I37" s="727" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="J37" s="727"/>
       <c r="K37" s="727"/>
@@ -21276,21 +20975,21 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="113" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="37"/>
       <c r="D38" s="68"/>
       <c r="E38" s="725" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F38" s="586"/>
       <c r="G38" s="587"/>
       <c r="H38" s="726" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I38" s="727" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="J38" s="727"/>
       <c r="K38" s="727"/>
@@ -21304,21 +21003,21 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="113" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="37"/>
       <c r="D39" s="69"/>
       <c r="E39" s="725" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F39" s="586"/>
       <c r="G39" s="587"/>
       <c r="H39" s="726" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I39" s="727" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="J39" s="727"/>
       <c r="K39" s="727"/>
@@ -21332,15 +21031,15 @@
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="117" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="37"/>
       <c r="D40" s="198" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="E40" s="725" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="F40" s="586"/>
       <c r="G40" s="587"/>
@@ -21362,18 +21061,16 @@
     </row>
     <row r="41" spans="1:18" ht="45">
       <c r="A41" s="117" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="B41" s="100"/>
       <c r="C41" s="37"/>
       <c r="D41" s="68"/>
       <c r="E41" s="725" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="F41" s="586"/>
-      <c r="G41" s="587" t="s">
-        <v>482</v>
-      </c>
+      <c r="G41" s="587"/>
       <c r="H41" s="726" t="s">
         <v>138</v>
       </c>
@@ -21392,18 +21089,16 @@
     </row>
     <row r="42" spans="1:18" ht="54.75" customHeight="1">
       <c r="A42" s="117" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="B42" s="100"/>
       <c r="C42" s="37"/>
       <c r="D42" s="68"/>
       <c r="E42" s="725" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="F42" s="586"/>
-      <c r="G42" s="587" t="s">
-        <v>226</v>
-      </c>
+      <c r="G42" s="587"/>
       <c r="H42" s="726" t="s">
         <v>138</v>
       </c>
@@ -21422,18 +21117,16 @@
     </row>
     <row r="43" spans="1:18" ht="54.75" customHeight="1">
       <c r="A43" s="117" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="B43" s="100"/>
       <c r="C43" s="37"/>
       <c r="D43" s="68"/>
       <c r="E43" s="725" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="F43" s="586"/>
-      <c r="G43" s="587" t="s">
-        <v>226</v>
-      </c>
+      <c r="G43" s="587"/>
       <c r="H43" s="726" t="s">
         <v>138</v>
       </c>
@@ -21452,21 +21145,21 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="117" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="B44" s="100"/>
       <c r="C44" s="37"/>
       <c r="D44" s="68"/>
       <c r="E44" s="737" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="F44" s="586"/>
       <c r="G44" s="587"/>
       <c r="H44" s="738" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I44" s="739" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="J44" s="739"/>
       <c r="K44" s="739"/>
@@ -21480,7 +21173,7 @@
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="117" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="B45" s="118"/>
       <c r="C45" s="820" t="s">
@@ -21488,17 +21181,15 @@
       </c>
       <c r="D45" s="743"/>
       <c r="E45" s="743" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F45" s="715"/>
-      <c r="G45" s="716" t="s">
-        <v>452</v>
-      </c>
+      <c r="G45" s="716"/>
       <c r="H45" s="744" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="I45" s="745" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="J45" s="745"/>
       <c r="K45" s="745"/>
@@ -21512,23 +21203,21 @@
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="117" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B46" s="118"/>
       <c r="C46" s="64"/>
       <c r="D46" s="68"/>
       <c r="E46" s="748" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F46" s="749"/>
-      <c r="G46" s="750" t="s">
-        <v>226</v>
-      </c>
+      <c r="G46" s="750"/>
       <c r="H46" s="751" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="I46" s="752" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="J46" s="752"/>
       <c r="K46" s="752"/>
@@ -21542,23 +21231,21 @@
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="117" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B47" s="118"/>
       <c r="C47" s="64"/>
       <c r="D47" s="68"/>
       <c r="E47" s="757" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F47" s="758"/>
-      <c r="G47" s="759" t="s">
-        <v>226</v>
-      </c>
+      <c r="G47" s="759"/>
       <c r="H47" s="760" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I47" s="761" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J47" s="761"/>
       <c r="K47" s="761"/>
@@ -21572,23 +21259,21 @@
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="117" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B48" s="118"/>
       <c r="C48" s="64"/>
       <c r="D48" s="68"/>
       <c r="E48" s="766" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F48" s="767"/>
-      <c r="G48" s="768" t="s">
-        <v>226</v>
-      </c>
+      <c r="G48" s="768"/>
       <c r="H48" s="769" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I48" s="770" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J48" s="770"/>
       <c r="K48" s="770"/>
@@ -21602,23 +21287,21 @@
     </row>
     <row r="49" spans="1:18" ht="33.75">
       <c r="A49" s="117" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="B49" s="118"/>
       <c r="C49" s="64"/>
       <c r="D49" s="68"/>
       <c r="E49" s="775" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="F49" s="776"/>
-      <c r="G49" s="777" t="s">
-        <v>226</v>
-      </c>
+      <c r="G49" s="777"/>
       <c r="H49" s="778" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I49" s="779" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J49" s="779"/>
       <c r="K49" s="779"/>
@@ -21632,23 +21315,21 @@
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="117" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B50" s="118"/>
       <c r="C50" s="64"/>
       <c r="D50" s="68"/>
       <c r="E50" s="784" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F50" s="785"/>
-      <c r="G50" s="786" t="s">
-        <v>226</v>
-      </c>
+      <c r="G50" s="786"/>
       <c r="H50" s="787" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I50" s="788" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J50" s="788"/>
       <c r="K50" s="788"/>
@@ -21662,20 +21343,18 @@
     </row>
     <row r="51" spans="1:18" ht="22.5">
       <c r="A51" s="117" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B51" s="118"/>
       <c r="C51" s="64"/>
       <c r="D51" s="68"/>
       <c r="E51" s="793" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F51" s="794"/>
-      <c r="G51" s="795" t="s">
-        <v>226</v>
-      </c>
+      <c r="G51" s="795"/>
       <c r="H51" s="796" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I51" s="797" t="s">
         <v>157</v>
@@ -21692,23 +21371,21 @@
     </row>
     <row r="52" spans="1:18" ht="22.5">
       <c r="A52" s="117" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B52" s="118"/>
       <c r="C52" s="64"/>
       <c r="D52" s="68"/>
       <c r="E52" s="802" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F52" s="803"/>
-      <c r="G52" s="804" t="s">
-        <v>226</v>
-      </c>
+      <c r="G52" s="804"/>
       <c r="H52" s="805" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I52" s="806" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J52" s="806"/>
       <c r="K52" s="806"/>
@@ -21722,23 +21399,21 @@
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="117" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B53" s="119"/>
       <c r="C53" s="269"/>
       <c r="D53" s="68"/>
       <c r="E53" s="811" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F53" s="812"/>
-      <c r="G53" s="813" t="s">
-        <v>226</v>
-      </c>
+      <c r="G53" s="813"/>
       <c r="H53" s="814" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I53" s="815" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J53" s="815"/>
       <c r="K53" s="815"/>
@@ -21752,7 +21427,7 @@
     </row>
     <row r="54" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A54" s="117" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>37</v>
@@ -21761,10 +21436,10 @@
         <v>38</v>
       </c>
       <c r="D54" s="647" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E54" s="648" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F54" s="649"/>
       <c r="G54" s="650"/>
@@ -21789,14 +21464,14 @@
         <v>43658</v>
       </c>
       <c r="P54" s="127" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q54" s="50"/>
       <c r="R54" s="646"/>
     </row>
     <row r="55" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A55" s="117" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -21805,9 +21480,7 @@
         <v>41</v>
       </c>
       <c r="F55" s="803"/>
-      <c r="G55" s="804" t="s">
-        <v>345</v>
-      </c>
+      <c r="G55" s="804"/>
       <c r="H55" s="822" t="s">
         <v>39</v>
       </c>
@@ -21826,7 +21499,7 @@
     </row>
     <row r="56" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A56" s="117" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -21835,9 +21508,7 @@
         <v>42</v>
       </c>
       <c r="F56" s="803"/>
-      <c r="G56" s="804" t="s">
-        <v>226</v>
-      </c>
+      <c r="G56" s="804"/>
       <c r="H56" s="822" t="s">
         <v>39</v>
       </c>
@@ -21856,7 +21527,7 @@
     </row>
     <row r="57" spans="1:18" s="43" customFormat="1" ht="33.75">
       <c r="A57" s="117" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -21887,14 +21558,14 @@
         <v>43658</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="657"/>
     </row>
     <row r="58" spans="1:18" s="43" customFormat="1" ht="22.5">
       <c r="A58" s="117" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -21903,9 +21574,7 @@
         <v>44</v>
       </c>
       <c r="F58" s="803"/>
-      <c r="G58" s="804" t="s">
-        <v>345</v>
-      </c>
+      <c r="G58" s="804"/>
       <c r="H58" s="822" t="s">
         <v>39</v>
       </c>
@@ -21924,20 +21593,18 @@
     </row>
     <row r="59" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A59" s="117" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
       <c r="D59" s="658" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E59" s="824" t="s">
         <v>45</v>
       </c>
       <c r="F59" s="825"/>
-      <c r="G59" s="826" t="s">
-        <v>227</v>
-      </c>
+      <c r="G59" s="826"/>
       <c r="H59" s="827" t="s">
         <v>39</v>
       </c>
@@ -21956,7 +21623,7 @@
     </row>
     <row r="60" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A60" s="117" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -21965,9 +21632,7 @@
         <v>46</v>
       </c>
       <c r="F60" s="825"/>
-      <c r="G60" s="826" t="s">
-        <v>355</v>
-      </c>
+      <c r="G60" s="826"/>
       <c r="H60" s="827" t="s">
         <v>39</v>
       </c>
@@ -21986,7 +21651,7 @@
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="117" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -22017,14 +21682,14 @@
         <v>43658</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="660"/>
     </row>
     <row r="62" spans="1:18" s="32" customFormat="1">
       <c r="A62" s="117" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -22054,7 +21719,7 @@
     </row>
     <row r="63" spans="1:18" s="32" customFormat="1">
       <c r="A63" s="117" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -22082,7 +21747,7 @@
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="117" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -22095,7 +21760,7 @@
       <c r="F64" s="825"/>
       <c r="G64" s="826"/>
       <c r="H64" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I64" s="827" t="s">
         <v>53</v>
@@ -22112,7 +21777,7 @@
     </row>
     <row r="65" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="117" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -22123,7 +21788,7 @@
       <c r="F65" s="825"/>
       <c r="G65" s="826"/>
       <c r="H65" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I65" s="827" t="s">
         <v>53</v>
@@ -22140,7 +21805,7 @@
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="117" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -22149,11 +21814,9 @@
         <v>163</v>
       </c>
       <c r="F66" s="825"/>
-      <c r="G66" s="826" t="s">
-        <v>228</v>
-      </c>
+      <c r="G66" s="826"/>
       <c r="H66" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I66" s="827" t="s">
         <v>53</v>
@@ -22170,7 +21833,7 @@
     </row>
     <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="117" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -22179,13 +21842,13 @@
         <v>164</v>
       </c>
       <c r="F67" s="825" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G67" s="826" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H67" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I67" s="827" t="s">
         <v>53</v>
@@ -22202,7 +21865,7 @@
     </row>
     <row r="68" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="117" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -22211,11 +21874,9 @@
         <v>111</v>
       </c>
       <c r="F68" s="825"/>
-      <c r="G68" s="826" t="s">
-        <v>366</v>
-      </c>
+      <c r="G68" s="826"/>
       <c r="H68" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I68" s="827" t="s">
         <v>53</v>
@@ -22232,20 +21893,18 @@
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="117" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
       <c r="D69" s="65"/>
       <c r="E69" s="828" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F69" s="825"/>
-      <c r="G69" s="826" t="s">
-        <v>226</v>
-      </c>
+      <c r="G69" s="826"/>
       <c r="H69" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I69" s="827" t="s">
         <v>53</v>
@@ -22262,7 +21921,7 @@
     </row>
     <row r="70" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="117" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -22271,11 +21930,9 @@
         <v>112</v>
       </c>
       <c r="F70" s="825"/>
-      <c r="G70" s="826" t="s">
-        <v>230</v>
-      </c>
+      <c r="G70" s="826"/>
       <c r="H70" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I70" s="827" t="s">
         <v>53</v>
@@ -22292,20 +21949,18 @@
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="117" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
       <c r="D71" s="67"/>
       <c r="E71" s="828" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F71" s="825"/>
-      <c r="G71" s="826" t="s">
-        <v>226</v>
-      </c>
+      <c r="G71" s="826"/>
       <c r="H71" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I71" s="827" t="s">
         <v>53</v>
@@ -22322,7 +21977,7 @@
     </row>
     <row r="72" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="117" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -22330,15 +21985,15 @@
         <v>161</v>
       </c>
       <c r="E72" s="828" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="F72" s="825"/>
       <c r="G72" s="826"/>
       <c r="H72" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I72" s="66" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="J72" s="828"/>
       <c r="K72" s="828"/>
@@ -22352,7 +22007,7 @@
     </row>
     <row r="73" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="117" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -22365,7 +22020,7 @@
       <c r="F73" s="825"/>
       <c r="G73" s="826"/>
       <c r="H73" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I73" s="830" t="s">
         <v>57</v>
@@ -22382,18 +22037,18 @@
     </row>
     <row r="74" spans="1:18" s="32" customFormat="1">
       <c r="A74" s="117" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="65"/>
       <c r="E74" s="828" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F74" s="825"/>
       <c r="G74" s="826"/>
       <c r="H74" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I74" s="830" t="s">
         <v>57</v>
@@ -22410,7 +22065,7 @@
     </row>
     <row r="75" spans="1:18" s="32" customFormat="1">
       <c r="A75" s="117" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -22421,7 +22076,7 @@
       <c r="F75" s="825"/>
       <c r="G75" s="826"/>
       <c r="H75" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I75" s="830" t="s">
         <v>57</v>
@@ -22438,7 +22093,7 @@
     </row>
     <row r="76" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="117" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -22451,7 +22106,7 @@
       <c r="F76" s="825"/>
       <c r="G76" s="826"/>
       <c r="H76" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I76" s="830" t="s">
         <v>57</v>
@@ -22468,7 +22123,7 @@
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1">
       <c r="A77" s="117" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -22479,7 +22134,7 @@
       <c r="F77" s="825"/>
       <c r="G77" s="826"/>
       <c r="H77" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I77" s="830" t="s">
         <v>57</v>
@@ -22496,7 +22151,7 @@
     </row>
     <row r="78" spans="1:18" s="32" customFormat="1">
       <c r="A78" s="117" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -22507,7 +22162,7 @@
       <c r="F78" s="825"/>
       <c r="G78" s="826"/>
       <c r="H78" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I78" s="830" t="s">
         <v>57</v>
@@ -22524,7 +22179,7 @@
     </row>
     <row r="79" spans="1:18" s="32" customFormat="1">
       <c r="A79" s="117" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -22535,7 +22190,7 @@
       <c r="F79" s="170"/>
       <c r="G79" s="171"/>
       <c r="H79" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I79" s="830" t="s">
         <v>57</v>
@@ -22552,7 +22207,7 @@
     </row>
     <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="117" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -22561,13 +22216,13 @@
       </c>
       <c r="E80" s="832"/>
       <c r="F80" s="170" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G80" s="171" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="H80" s="827" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I80" s="830" t="s">
         <v>178</v>
@@ -22584,7 +22239,7 @@
     </row>
     <row r="81" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A81" s="117" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="B81" s="41"/>
       <c r="C81" s="661" t="s">
@@ -22597,7 +22252,7 @@
       <c r="F81" s="664"/>
       <c r="G81" s="665"/>
       <c r="H81" s="661" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I81" s="661" t="s">
         <v>64</v>
@@ -22617,14 +22272,14 @@
         <v>43658</v>
       </c>
       <c r="P81" s="669" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q81" s="668"/>
       <c r="R81" s="670"/>
     </row>
     <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="117" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -22637,7 +22292,7 @@
       <c r="F82" s="664"/>
       <c r="G82" s="665"/>
       <c r="H82" s="661" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I82" s="661" t="s">
         <v>64</v>
@@ -22657,25 +22312,25 @@
         <v>43658</v>
       </c>
       <c r="P82" s="669" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q82" s="668"/>
       <c r="R82" s="670"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="117" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="671"/>
       <c r="E83" s="833" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F83" s="834"/>
       <c r="G83" s="835"/>
       <c r="H83" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I83" s="830" t="s">
         <v>64</v>
@@ -22692,7 +22347,7 @@
     </row>
     <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="117" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -22703,7 +22358,7 @@
       <c r="F84" s="664"/>
       <c r="G84" s="665"/>
       <c r="H84" s="661" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I84" s="661" t="s">
         <v>64</v>
@@ -22723,14 +22378,14 @@
         <v>43658</v>
       </c>
       <c r="P84" s="669" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q84" s="668"/>
       <c r="R84" s="670"/>
     </row>
     <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="117" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -22741,7 +22396,7 @@
       <c r="F85" s="664"/>
       <c r="G85" s="665"/>
       <c r="H85" s="661" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I85" s="661" t="s">
         <v>64</v>
@@ -22761,14 +22416,14 @@
         <v>43658</v>
       </c>
       <c r="P85" s="669" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q85" s="668"/>
       <c r="R85" s="670"/>
     </row>
     <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="117" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -22779,7 +22434,7 @@
       <c r="F86" s="664"/>
       <c r="G86" s="665"/>
       <c r="H86" s="661" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I86" s="661" t="s">
         <v>64</v>
@@ -22799,29 +22454,29 @@
         <v>43658</v>
       </c>
       <c r="P86" s="669" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q86" s="668"/>
       <c r="R86" s="670"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="117" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
       <c r="D87" s="842" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="E87" s="843"/>
       <c r="F87" s="834" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G87" s="835" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="H87" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I87" s="830" t="s">
         <v>64</v>
@@ -22838,7 +22493,7 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="117" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -22847,13 +22502,13 @@
       </c>
       <c r="E88" s="843"/>
       <c r="F88" s="834" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G88" s="835" t="s">
         <v>226</v>
       </c>
       <c r="H88" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I88" s="830" t="s">
         <v>64</v>
@@ -22870,7 +22525,7 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="117" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -22879,13 +22534,13 @@
       </c>
       <c r="E89" s="843"/>
       <c r="F89" s="834" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G89" s="835" t="s">
         <v>226</v>
       </c>
       <c r="H89" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I89" s="830" t="s">
         <v>64</v>
@@ -22902,7 +22557,7 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="117" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -22911,13 +22566,13 @@
       </c>
       <c r="E90" s="843"/>
       <c r="F90" s="834" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G90" s="835" t="s">
         <v>226</v>
       </c>
       <c r="H90" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I90" s="830" t="s">
         <v>64</v>
@@ -22934,7 +22589,7 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="117" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -22943,13 +22598,13 @@
       </c>
       <c r="E91" s="843"/>
       <c r="F91" s="834" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G91" s="835" t="s">
         <v>226</v>
       </c>
       <c r="H91" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I91" s="830" t="s">
         <v>64</v>
@@ -22966,7 +22621,7 @@
     </row>
     <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="117" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -22977,7 +22632,7 @@
       <c r="F92" s="834"/>
       <c r="G92" s="835"/>
       <c r="H92" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I92" s="830" t="s">
         <v>64</v>
@@ -22994,7 +22649,7 @@
     </row>
     <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="117" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -23005,7 +22660,7 @@
       <c r="F93" s="834"/>
       <c r="G93" s="835"/>
       <c r="H93" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I93" s="830" t="s">
         <v>64</v>
@@ -23022,7 +22677,7 @@
     </row>
     <row r="94" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="117" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -23033,7 +22688,7 @@
       <c r="F94" s="834"/>
       <c r="G94" s="835"/>
       <c r="H94" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I94" s="830" t="s">
         <v>64</v>
@@ -23050,7 +22705,7 @@
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="117" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -23061,7 +22716,7 @@
       <c r="F95" s="834"/>
       <c r="G95" s="835"/>
       <c r="H95" s="824" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I95" s="824" t="s">
         <v>64</v>
@@ -23078,7 +22733,7 @@
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="117" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -23089,7 +22744,7 @@
       <c r="F96" s="834"/>
       <c r="G96" s="835"/>
       <c r="H96" s="830" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I96" s="830" t="s">
         <v>64</v>
@@ -23106,7 +22761,7 @@
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="117" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -23115,13 +22770,13 @@
       </c>
       <c r="E97" s="843"/>
       <c r="F97" s="834" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G97" s="835" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="H97" s="824" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I97" s="824" t="s">
         <v>64</v>
@@ -23138,18 +22793,18 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="117" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
       <c r="D98" s="70" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E98" s="71"/>
       <c r="F98" s="825"/>
       <c r="G98" s="826"/>
       <c r="H98" s="845" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I98" s="845" t="s">
         <v>64</v>
@@ -23166,18 +22821,18 @@
     </row>
     <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="117" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
       <c r="D99" s="70" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="E99" s="71"/>
       <c r="F99" s="825"/>
       <c r="G99" s="826"/>
       <c r="H99" s="845" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I99" s="845" t="s">
         <v>64</v>
@@ -23194,7 +22849,7 @@
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="674" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B100" s="41"/>
       <c r="C100" s="41"/>
@@ -23205,7 +22860,7 @@
       <c r="F100" s="803"/>
       <c r="G100" s="804"/>
       <c r="H100" s="851" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I100" s="851" t="s">
         <v>64</v>
@@ -23222,22 +22877,22 @@
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="163" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B101" s="41"/>
       <c r="C101" s="41"/>
       <c r="D101" s="70" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E101" s="71"/>
       <c r="F101" s="803" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G101" s="804" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="H101" s="65" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I101" s="65" t="s">
         <v>64</v>
@@ -23254,7 +22909,7 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="674" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B102" s="72"/>
       <c r="C102" s="72"/>
@@ -23263,16 +22918,16 @@
       </c>
       <c r="E102" s="335"/>
       <c r="F102" s="803" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G102" s="804" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="H102" s="851" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I102" s="851" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J102" s="852"/>
       <c r="K102" s="852"/>
@@ -23521,7 +23176,7 @@
         <v>209</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>0</v>
@@ -23532,7 +23187,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1</v>
@@ -23559,14 +23214,11 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickTop="1">
-      <c r="F9" s="25" t="s">
-        <v>233</v>
-      </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="859" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B10" s="859" t="s">
         <v>9</v>
@@ -23581,10 +23233,10 @@
         <v>86</v>
       </c>
       <c r="F10" s="860" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G10" s="860" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H10" s="859" t="s">
         <v>12</v>
@@ -23602,7 +23254,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="862" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N10" s="861" t="s">
         <v>5</v>
@@ -23622,7 +23274,7 @@
     </row>
     <row r="11" spans="1:18" s="32" customFormat="1" ht="78.75">
       <c r="A11" s="863" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="B11" s="864" t="s">
         <v>90</v>
@@ -23637,7 +23289,7 @@
       <c r="F11" s="866"/>
       <c r="G11" s="866"/>
       <c r="H11" s="864" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I11" s="864" t="s">
         <v>177</v>
@@ -23657,14 +23309,14 @@
         <v>43658</v>
       </c>
       <c r="P11" s="869" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="869"/>
       <c r="R11" s="869"/>
     </row>
     <row r="12" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="871" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -23675,7 +23327,7 @@
       <c r="F12" s="866"/>
       <c r="G12" s="866"/>
       <c r="H12" s="864" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I12" s="864" t="s">
         <v>92</v>
@@ -23695,14 +23347,14 @@
         <v>43658</v>
       </c>
       <c r="P12" s="876" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q12" s="876"/>
       <c r="R12" s="876"/>
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="871" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -23713,7 +23365,7 @@
       <c r="F13" s="891"/>
       <c r="G13" s="891"/>
       <c r="H13" s="892" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I13" s="892" t="s">
         <v>92</v>
@@ -23730,7 +23382,7 @@
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="871" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -23741,7 +23393,7 @@
       <c r="F14" s="891"/>
       <c r="G14" s="891"/>
       <c r="H14" s="892" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I14" s="892" t="s">
         <v>92</v>
@@ -23758,7 +23410,7 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="871" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -23771,7 +23423,7 @@
       <c r="F15" s="866"/>
       <c r="G15" s="866"/>
       <c r="H15" s="864" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I15" s="864" t="s">
         <v>92</v>
@@ -23780,7 +23432,7 @@
         <v>216</v>
       </c>
       <c r="K15" s="874" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="L15" s="875"/>
       <c r="M15" s="876"/>
@@ -23791,14 +23443,14 @@
         <v>43658</v>
       </c>
       <c r="P15" s="876" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q15" s="876"/>
       <c r="R15" s="876"/>
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="871" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -23809,7 +23461,7 @@
       <c r="F16" s="891"/>
       <c r="G16" s="891"/>
       <c r="H16" s="892" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I16" s="892" t="s">
         <v>92</v>
@@ -23826,7 +23478,7 @@
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="871" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -23837,7 +23489,7 @@
       <c r="F17" s="891"/>
       <c r="G17" s="891"/>
       <c r="H17" s="892" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I17" s="892" t="s">
         <v>92</v>
@@ -23854,7 +23506,7 @@
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="871" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -23865,7 +23517,7 @@
       <c r="F18" s="891"/>
       <c r="G18" s="891"/>
       <c r="H18" s="892" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I18" s="892" t="s">
         <v>92</v>
@@ -23882,12 +23534,12 @@
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="871" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
       <c r="D19" s="897" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>99</v>
@@ -23895,7 +23547,7 @@
       <c r="F19" s="891"/>
       <c r="G19" s="891"/>
       <c r="H19" s="892" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I19" s="892" t="s">
         <v>92</v>
@@ -23912,7 +23564,7 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="871" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -23920,21 +23572,21 @@
         <v>116</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="F20" s="866"/>
       <c r="G20" s="866"/>
       <c r="H20" s="864" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I20" s="864" t="s">
         <v>92</v>
       </c>
       <c r="J20" s="874" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="K20" s="874" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="L20" s="881"/>
       <c r="M20" s="882"/>
@@ -23945,25 +23597,25 @@
         <v>43658</v>
       </c>
       <c r="P20" s="882" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="882"/>
       <c r="R20" s="882"/>
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="871" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="976" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="E21" s="977"/>
       <c r="F21" s="891"/>
       <c r="G21" s="891"/>
       <c r="H21" s="892" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I21" s="892" t="s">
         <v>92</v>
@@ -23980,7 +23632,7 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="871" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="878" t="s">
@@ -23993,7 +23645,7 @@
       <c r="F22" s="866"/>
       <c r="G22" s="866"/>
       <c r="H22" s="864" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I22" s="864" t="s">
         <v>92</v>
@@ -24013,14 +23665,14 @@
         <v>43658</v>
       </c>
       <c r="P22" s="876" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="876"/>
       <c r="R22" s="876"/>
     </row>
     <row r="23" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="871" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -24031,7 +23683,7 @@
       <c r="F23" s="866"/>
       <c r="G23" s="866"/>
       <c r="H23" s="864" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="I23" s="864" t="s">
         <v>92</v>
@@ -24040,7 +23692,7 @@
         <v>220</v>
       </c>
       <c r="K23" s="874" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="L23" s="875"/>
       <c r="M23" s="876"/>
@@ -24051,14 +23703,14 @@
         <v>43658</v>
       </c>
       <c r="P23" s="876" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q23" s="876"/>
       <c r="R23" s="876"/>
     </row>
     <row r="24" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="898" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B24" s="892" t="s">
         <v>168</v>
@@ -24069,16 +23721,16 @@
       <c r="D24" s="900"/>
       <c r="E24" s="901"/>
       <c r="F24" s="891" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G24" s="902" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="H24" s="897" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="66" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="J24" s="893"/>
       <c r="K24" s="893"/>
@@ -24092,25 +23744,25 @@
     </row>
     <row r="25" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A25" s="903" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B25" s="904"/>
       <c r="C25" s="905" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="D25" s="906"/>
       <c r="E25" s="907"/>
       <c r="F25" s="891" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G25" s="891" t="s">
         <v>226</v>
       </c>
       <c r="H25" s="908" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="I25" s="908" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J25" s="909"/>
       <c r="K25" s="909"/>
